--- a/data/income_statement/3digits/total/781_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/781_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>781-Activities of employment placement agencies</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>781-Activities of employment placement agencies</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,38 +841,43 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>560794.8883399999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>698706.8274100001</v>
+        <v>698706.8274099999</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>939153.9797900001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>851395.2236799999</v>
+        <v>853360.55278</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>878479.49786</v>
+        <v>879298.9996699999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1153479.47821</v>
+        <v>1154717.23709</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1685858.35359</v>
+        <v>1721504.79039</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1806076.94177</v>
+        <v>1807431.66434</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2360173.77139</v>
@@ -980,37 +886,42 @@
         <v>2867707.25016</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3642240.50073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3655737.82939</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3793764.93</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>456830.0141900001</v>
+        <v>456830.01419</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>519146.1642</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>655382.46959</v>
+        <v>655382.4695899999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>736464.3949</v>
+        <v>738429.724</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>839651.8048200001</v>
+        <v>840471.30663</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1060147.21874</v>
+        <v>1061352.10258</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1491709.70542</v>
+        <v>1526283.17897</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1700672.39135</v>
+        <v>1701893.49465</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2233703.7771</v>
@@ -1019,13 +930,18 @@
         <v>2729229.59701</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3431699.74014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3442759.33718</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3652605.847</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>89168.02839000001</v>
@@ -1037,7 +953,7 @@
         <v>261654.53453</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>90539.09183999999</v>
+        <v>90539.09184000001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>19472.02358</v>
@@ -1046,10 +962,10 @@
         <v>42374.08263</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>130491.22244</v>
+        <v>130581.12645</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>48888.60228</v>
+        <v>48872.21612999999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>64498.35393</v>
@@ -1058,13 +974,18 @@
         <v>63463.9997</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>82177.99348999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>84482.89992</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>61446.883</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14796.84576</v>
@@ -1082,13 +1003,13 @@
         <v>19355.66946</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>50958.17684</v>
+        <v>50991.05187999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>63657.42573</v>
+        <v>64640.48497</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>56515.94814</v>
+        <v>56665.95356</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>61971.64036</v>
@@ -1097,13 +1018,18 @@
         <v>75013.65345</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>128362.7671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>128495.59229</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>79712.2</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1483.75347</v>
@@ -1121,10 +1047,10 @@
         <v>3757.54895</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6840.74475</v>
+        <v>6847.89248</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5379.584019999999</v>
+        <v>5394.09342</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>7682.791550000001</v>
@@ -1136,13 +1062,18 @@
         <v>30587.1234</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>29056.41862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>29059.41862</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>49658.77</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1355.14086</v>
@@ -1163,7 +1094,7 @@
         <v>6771.32195</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5074.684520000001</v>
+        <v>5089.19392</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>7546.7491</v>
@@ -1175,13 +1106,18 @@
         <v>26473.61204</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>20347.87892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20350.87892</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>31271.024</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>82.48783999999999</v>
@@ -1199,7 +1135,7 @@
         <v>60.21486</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>52.01828</v>
+        <v>59.16600999999999</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>125.92493</v>
@@ -1214,13 +1150,18 @@
         <v>3967.44739</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8489.50699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8489.506989999998</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17829.997</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>46.12477</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>219.03271</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>557.749</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>559311.13487</v>
@@ -1271,19 +1217,19 @@
         <v>937364.1051400001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>849510.76857</v>
+        <v>851476.09767</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>874721.9489099999</v>
+        <v>875541.4507200001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1146638.73346</v>
+        <v>1147869.34461</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1680478.76957</v>
+        <v>1716110.69697</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1798394.15022</v>
+        <v>1799748.87279</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2334503.74378</v>
@@ -1292,13 +1238,18 @@
         <v>2837120.12676</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3613184.08211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3626678.41077</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3744106.16</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>474218.86278</v>
@@ -1310,40 +1261,45 @@
         <v>802018.65095</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>720850.50095</v>
+        <v>722902.61977</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>740281.09936</v>
+        <v>741020.64668</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>984730.93433</v>
+        <v>985749.3045100002</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1500891.03215</v>
+        <v>1533277.06548</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1572175.09872</v>
+        <v>1573572.87578</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2045357.76221</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2506075.7034</v>
+        <v>2506077.35848</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3155750.52458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3164603.73085</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3308620.555</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>98503.68577</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8443.4696</v>
+        <v>8443.469600000002</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>8464.61189</v>
@@ -1361,7 +1317,7 @@
         <v>12767.74255</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7328.060939999999</v>
+        <v>7328.06094</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>53441.15757</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>20047.01559</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>39112.051</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>89751.86601000001</v>
@@ -1388,34 +1349,39 @@
         <v>250942.80596</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>95158.24701000001</v>
+        <v>95158.24700999999</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>51461.19402</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>32690.24419</v>
+        <v>32966.91493</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>72788.81904</v>
+        <v>81058.08653</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>141680.98058</v>
+        <v>141752.45609</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>330231.1646799999</v>
+        <v>330231.16468</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>140646.12528</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>151313.22943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>153772.25868</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>180419.475</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>285918.29376</v>
@@ -1427,34 +1393,39 @@
         <v>541840.2204</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>622905.22248</v>
+        <v>624957.3413</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>683969.9941</v>
+        <v>684709.5414199999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>942636.21182</v>
+        <v>943377.91126</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1414762.70395</v>
+        <v>1438879.46979</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1417353.74877</v>
+        <v>1418681.64693</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1660994.1771</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2339685.3065</v>
+        <v>2339686.96158</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2983254.97914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2989626.78257</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3086131.953</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>45.01724</v>
@@ -1472,28 +1443,33 @@
         <v>143.76381</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>398.7300700000001</v>
+        <v>398.73007</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>571.76661</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5812.30843</v>
+        <v>5810.71182</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>691.26286</v>
+        <v>691.2628599999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>735.36867</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1135.30042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1157.67401</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2957.076</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>85092.27209</v>
@@ -1505,37 +1481,42 @@
         <v>135345.45419</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>128660.26762</v>
+        <v>128573.4779</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>134440.84955</v>
+        <v>134520.80404</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>161907.79913</v>
+        <v>162120.0401</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>179587.73742</v>
+        <v>182833.63149</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>226219.0515</v>
+        <v>226175.99701</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>289145.98157</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>331044.42336</v>
+        <v>331042.76828</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>457433.55753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>462074.67992</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>435485.605</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>80045.97392999999</v>
+        <v>80045.97393000001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>91015.06557999999</v>
@@ -1544,34 +1525,39 @@
         <v>106901.59355</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>108114.10047</v>
+        <v>108117.47209</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>113478.93694</v>
+        <v>113564.31939</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>160692.54194</v>
+        <v>161015.42515</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>180729.69688</v>
+        <v>183141.53102</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>200921.97918</v>
+        <v>201265.16917</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>245914.63655</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>278149.91181</v>
+        <v>278231.31498</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>296649.60051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>300562.91517</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>279804.355</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>47.73785</v>
@@ -1592,7 +1578,7 @@
         <v>47.97916</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0</v>
+        <v>0.01134</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>206.37764</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>1327.39324</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2329.635</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>16994.98934</v>
@@ -1628,28 +1619,33 @@
         <v>13695.25722</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>16552.24218</v>
+        <v>16567.68002</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>25643.93229</v>
+        <v>25786.36916</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26462.41695</v>
+        <v>26496.48567</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>38513.36538</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>33078.00481</v>
+        <v>33079.31011</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>32915.59473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>33321.3254</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>31319.898</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>63003.24674</v>
@@ -1661,73 +1657,83 @@
         <v>86275.64683</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>89152.38458000001</v>
+        <v>89155.7562</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>99780.14873</v>
+        <v>99865.53118000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>144092.3206</v>
+        <v>144399.76597</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>155085.76459</v>
+        <v>157355.15052</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>174253.18459</v>
+        <v>174562.30586</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>206998.57407</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>242860.52376</v>
+        <v>242940.62163</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>262406.61254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>265914.19653</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>246154.822</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5046.298159999999</v>
+        <v>5046.29816</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>9767.392319999999</v>
+        <v>9767.392320000001</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>28443.86064</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>20546.16715</v>
+        <v>20456.00581</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>20961.91261</v>
+        <v>20956.48465</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1215.25719</v>
+        <v>1104.614949999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1141.959460000002</v>
+        <v>-307.8995299999993</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>25297.07232</v>
+        <v>24910.82784</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>43231.34501999999</v>
+        <v>43231.34502</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>52894.51155</v>
+        <v>52811.45329999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>160783.95702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>161511.76475</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>155681.25</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>8420.737640000001</v>
@@ -1748,25 +1754,30 @@
         <v>24549.20577</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>29332.76846</v>
+        <v>29664.64132</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>27355.12021</v>
+        <v>28795.66867</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>42315.4073</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>76784.08884</v>
+        <v>76784.08886</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>60510.47237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>60787.13380999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>58377.251</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>125.82845</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>153.8416</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>46.203</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>8398.93216</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>651.747</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1391.04021</v>
@@ -1856,7 +1877,7 @@
         <v>1423.02361</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2353.292980000001</v>
+        <v>2353.29298</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>1983.85636</v>
@@ -1865,10 +1886,10 @@
         <v>3935.66281</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5359.65592</v>
+        <v>5691.527700000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4685.61434</v>
+        <v>4685.07444</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>5393.42976</v>
@@ -1877,13 +1898,18 @@
         <v>12573.01081</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11829.76679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11988.04767</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9059.332</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>13.12986</v>
@@ -1918,17 +1944,22 @@
       <c r="M29" s="48" t="n">
         <v>11.95293</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>42.501</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>423.22712</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2230.75283</v>
+        <v>2230.752829999999</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1073.92067</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>3215.14465</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1720.872</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>356.42464</v>
@@ -1982,7 +2018,7 @@
         <v>165.11059</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>600.9147399999999</v>
+        <v>600.9158199999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1172.75764</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1210.38572</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>879.191</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3956.61738</v>
@@ -2024,22 +2065,27 @@
         <v>14595.55996</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11221.04001</v>
+        <v>11219.25256</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>19980.19606</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>45084.1155</v>
+        <v>45084.11550000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>22930.30774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>23064.36483</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>29184.531</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.37808</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>28.24607</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>149.776</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00018</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2154.09172</v>
@@ -2132,7 +2188,7 @@
         <v>2292.22631</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7568.51207</v>
+        <v>7568.512070000001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>4077.21669</v>
@@ -2141,22 +2197,27 @@
         <v>6519.30267</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9668.068080000001</v>
+        <v>11110.94389</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>16020.71172</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12767.95515</v>
+        <v>12767.95517</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>12731.89471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>12716.21818</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16643.098</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>8286.30961</v>
@@ -2171,16 +2232,16 @@
         <v>9860.61219</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5850.42112</v>
+        <v>5850.421119999999</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>17583.06093</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>25691.66962</v>
+        <v>25691.70496</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>24350.3296</v>
+        <v>25428.8029</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>47872.20237</v>
@@ -2189,13 +2250,18 @@
         <v>77671.81768000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>51419.60796000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>51510.75197</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>83100.75900000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11.05228</v>
@@ -2213,10 +2279,10 @@
         <v>64.18725000000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>82.57898000000002</v>
+        <v>82.57898</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>24.65231</v>
+        <v>24.65931</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>22.95609</v>
@@ -2228,13 +2294,18 @@
         <v>35.62247</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1267.99682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1268.00004</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>52.214</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2456.69279</v>
@@ -2261,7 +2332,7 @@
         <v>1161.77718</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7265.602779999999</v>
+        <v>7265.602780000001</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>6628.509700000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>6193.098869999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>6269.851</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.15503</v>
@@ -2291,7 +2367,7 @@
         <v>21.23982</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>6.051050000000001</v>
+        <v>6.05105</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>53.7298</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>5.480479999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>11.168</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3155.79353</v>
@@ -2324,7 +2405,7 @@
         <v>11648.38714</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5198.971530000001</v>
+        <v>5198.971529999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>1175.08431</v>
@@ -2345,13 +2426,18 @@
         <v>57939.74612</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>28614.24751</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>28705.38821</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>53875.036</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>10.21414</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>84.05722</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>56.999</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.10299</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>2.92312</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2650.29885</v>
@@ -2450,10 +2546,10 @@
         <v>5732.62201</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>8510.60821</v>
+        <v>8510.636550000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8652.02692</v>
+        <v>9730.500219999998</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>13107.23666</v>
@@ -2462,13 +2558,18 @@
         <v>12825.45996</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>15251.80394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>15251.80403</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22835.491</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1727.69433</v>
@@ -2480,7 +2581,7 @@
         <v>3737.20325</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3242.319849999999</v>
+        <v>3242.31985</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>3111.42586</v>
@@ -2489,10 +2590,10 @@
         <v>6459.267269999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>8181.986440000001</v>
+        <v>8621.512219999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>10257.98533</v>
+        <v>10260.80008</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>12109.30597</v>
@@ -2501,13 +2602,18 @@
         <v>22761.65545</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>21938.50129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>21939.27945</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>34369.132</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1722.22719</v>
@@ -2528,10 +2634,10 @@
         <v>6442.187660000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>7999.123509999999</v>
+        <v>8438.649289999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10233.85469</v>
+        <v>10236.66944</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>11705.07384</v>
@@ -2540,13 +2646,18 @@
         <v>22546.22987</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>21463.66225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>21464.44041</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>34087.509</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5.467140000000001</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>474.83904</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>281.623</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>3453.03186</v>
@@ -2594,37 +2710,42 @@
         <v>11829.07596</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>32256.35338999999</v>
+        <v>32256.35339</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>16115.0729</v>
+        <v>16024.91156</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>26103.02229</v>
+        <v>26097.59433</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1722.13476</v>
+        <v>1611.49252</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-5682.847060000001</v>
+        <v>-4956.475389999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>18043.8776</v>
+        <v>18016.89353</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>25565.24398</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>29245.12726</v>
+        <v>29162.06903</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>147936.32014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>148848.86714</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>96588.61</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2436.69587</v>
@@ -2636,34 +2757,39 @@
         <v>5186.23584</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4899.969389999999</v>
+        <v>4958.13875</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5372.707250000001</v>
+        <v>5372.70725</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4278.85124</v>
+        <v>4278.43186</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4859.78127</v>
+        <v>5313.31923</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9609.623840000002</v>
+        <v>9635.674949999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>8948.77276</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>33353.92374000001</v>
+        <v>33355.68198</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>34296.13268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34326.3921</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>23437.795</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>988.3264300000001</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>374.72623</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>215.923</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1448.36944</v>
@@ -2714,34 +2845,39 @@
         <v>5147.67083</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4882.71659</v>
+        <v>4940.88595</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5296.29512</v>
+        <v>5296.295119999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4269.5905</v>
+        <v>4269.17112</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4844.52653</v>
+        <v>5298.064490000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9230.498030000001</v>
+        <v>9256.549139999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>8873.03492</v>
+        <v>8873.034919999998</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>33236.68175</v>
+        <v>33238.43999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>33921.40645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>33951.66587</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>23221.872</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1223.06249</v>
@@ -2753,34 +2889,39 @@
         <v>24870.51084</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3892.21942</v>
+        <v>3898.57535</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4027.24192</v>
+        <v>4136.62472</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>30923.64251</v>
+        <v>30983.61452</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6903.908689999999</v>
+        <v>6983.61372</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>31348.27507</v>
+        <v>31353.2037</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6770.941519999999</v>
+        <v>6770.94152</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>54415.56014</v>
+        <v>54415.74364</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>62410.26652</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>62570.03884</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>20933.994</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3.82134</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>162.69948</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>136.871</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>188.27787</v>
@@ -2834,13 +2980,13 @@
         <v>674.2083999999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>210.42553</v>
+        <v>287.55277</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>873.3161</v>
+        <v>919.8707900000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1309.92428</v>
+        <v>1371.94888</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>3507.63442</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>106.26989</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1295.491</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1030.96328</v>
@@ -2870,34 +3021,39 @@
         <v>24340.14662</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3217.86203</v>
+        <v>3224.21796</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3816.81639</v>
+        <v>3849.071949999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>29722.47229</v>
+        <v>29735.88961</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5064.480449999999</v>
+        <v>5082.160879999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>27289.6185</v>
+        <v>27294.54713</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5407.95594</v>
+        <v>5407.955940000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>52618.43129</v>
+        <v>52618.61479000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>62141.29715000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>62301.06947</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>19501.632</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>4666.66524</v>
@@ -2909,34 +3065,39 @@
         <v>12572.07839</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>17122.82287</v>
+        <v>17084.47496</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>27448.48762</v>
+        <v>27333.67686</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-24922.65651</v>
+        <v>-25093.69014</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-7726.974479999999</v>
+        <v>-6626.76988</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-3694.77363</v>
+        <v>-3700.63522</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>27743.07522</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8183.490860000005</v>
+        <v>8102.007370000005</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>119822.1863</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>120605.2204</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>99092.41099999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3009.41231</v>
@@ -2957,10 +3118,10 @@
         <v>9176.72682</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>10467.26338</v>
+        <v>10496.726</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>12330.84719</v>
+        <v>12369.91956</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>14636.03503</v>
@@ -2969,13 +3130,18 @@
         <v>28499.39</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>60227.02147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>60560.32558</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>24498.873</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1657.25293</v>
@@ -2984,34 +3150,37 @@
         <v>8441.22919</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4156.090140000001</v>
+        <v>4156.09014</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9516.936669999999</v>
+        <v>9478.588760000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>18208.57842</v>
+        <v>18093.76766</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-34099.38333</v>
+        <v>-34270.41696</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-18194.23786</v>
+        <v>-17123.49587999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-16025.62082</v>
+        <v>-16070.55478</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>13107.04019</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-20315.89914</v>
+        <v>-20397.38263</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>59595.16483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>60044.89482</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>74593.538</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>442</v>
@@ -3041,31 +3213,34 @@
         <v>527</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>882</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>720</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>